--- a/testResult/result/test_computation_result M=20_K=100_2000.xlsx
+++ b/testResult/result/test_computation_result M=20_K=100_2000.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workPlace\researchRecord\anonymousPPTD\testResult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workPlace\researchRecord\anonymousPPTD\testResult\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63CEA08-31E9-417B-A692-02CB7616CD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9B8478-7411-48CC-8760-057AFD0DD2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_computation_result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>K</t>
   </si>
@@ -44,6 +55,10 @@
   </si>
   <si>
     <t>cloud_server_aggreate_time</t>
+  </si>
+  <si>
+    <t>edge_and_cloud</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -995,19 +1010,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="6" max="6" width="31.125" customWidth="1"/>
+    <col min="6" max="6" width="44.375" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1027,13 +1043,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1053,13 +1072,16 @@
         <v>41.3029000000002</v>
       </c>
       <c r="G2">
+        <v>107.16460000000072</v>
+      </c>
+      <c r="H2">
         <v>23.450816</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>24.2984000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>200</v>
       </c>
@@ -1079,13 +1101,16 @@
         <v>153.20940000000101</v>
       </c>
       <c r="G3">
+        <v>281.67062000000533</v>
+      </c>
+      <c r="H3">
         <v>47.087542499999898</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>107.610799999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>300</v>
       </c>
@@ -1105,13 +1130,16 @@
         <v>345.86910000000103</v>
       </c>
       <c r="G4">
+        <v>548.74403000000575</v>
+      </c>
+      <c r="H4">
         <v>70.012040999999797</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>262.04739999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>400</v>
       </c>
@@ -1131,13 +1159,16 @@
         <v>644.45559999999296</v>
       </c>
       <c r="G5">
+        <v>900.9632299999721</v>
+      </c>
+      <c r="H5">
         <v>90.357484249999402</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>515.54930000000297</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>500</v>
       </c>
@@ -1157,13 +1188,16 @@
         <v>935.11300000000097</v>
       </c>
       <c r="G6">
+        <v>1285.4593900000045</v>
+      </c>
+      <c r="H6">
         <v>114.63835779999999</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>983.51079999997603</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>600</v>
       </c>
@@ -1183,13 +1217,16 @@
         <v>1379.28250000001</v>
       </c>
       <c r="G7">
+        <v>1777.330380000082</v>
+      </c>
+      <c r="H7">
         <v>139.67635200000001</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1248.87790000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>700</v>
       </c>
@@ -1209,13 +1246,16 @@
         <v>1942.6751000000299</v>
       </c>
       <c r="G8">
+        <v>2418.1477399999881</v>
+      </c>
+      <c r="H8">
         <v>163.07279814285701</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1885.9778000000299</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>800</v>
       </c>
@@ -1235,13 +1275,16 @@
         <v>2463.31789999999</v>
       </c>
       <c r="G9">
+        <v>3037.6252000000327</v>
+      </c>
+      <c r="H9">
         <v>185.05662975000101</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2770.3407999999799</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>900</v>
       </c>
@@ -1261,13 +1304,16 @@
         <v>3105.7370999999398</v>
       </c>
       <c r="G10">
+        <v>3757.6129799999508</v>
+      </c>
+      <c r="H10">
         <v>212.00369044444301</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5108.1805999999597</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -1287,13 +1333,16 @@
         <v>3859.0263999999402</v>
       </c>
       <c r="G11">
+        <v>4597.0335199999718</v>
+      </c>
+      <c r="H11">
         <v>234.07983530000101</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5583.9129999999304</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -1313,13 +1362,16 @@
         <v>4606.1823000000004</v>
       </c>
       <c r="G12">
+        <v>5403.817229999594</v>
+      </c>
+      <c r="H12">
         <v>254.461072272725</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>6837.2698000000501</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -1339,13 +1391,16 @@
         <v>5524.0968000000503</v>
       </c>
       <c r="G13">
+        <v>6461.2976500000495</v>
+      </c>
+      <c r="H13">
         <v>271.79613383333401</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>8927.18480000007</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -1365,13 +1420,16 @@
         <v>6416.01620000005</v>
       </c>
       <c r="G14">
+        <v>7464.0715100000907</v>
+      </c>
+      <c r="H14">
         <v>298.33737407692098</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>10703.2662000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -1391,13 +1449,16 @@
         <v>7528.9646000001003</v>
       </c>
       <c r="G15">
+        <v>8680.5099599998975</v>
+      </c>
+      <c r="H15">
         <v>325.07261114286098</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>12695.540799999801</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -1417,13 +1478,16 @@
         <v>8663.5787999998593</v>
       </c>
       <c r="G16">
+        <v>9906.3067400006166</v>
+      </c>
+      <c r="H16">
         <v>347.67837906666898</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>17781.406299999599</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -1443,13 +1507,16 @@
         <v>9771.3167000001704</v>
       </c>
       <c r="G17">
+        <v>11152.799870000035</v>
+      </c>
+      <c r="H17">
         <v>370.69535187499997</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>20833.2605999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -1469,13 +1536,16 @@
         <v>11102.5918000004</v>
       </c>
       <c r="G18">
+        <v>12576.937329999877</v>
+      </c>
+      <c r="H18">
         <v>389.10683364705602</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>22366.9281999991</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -1495,13 +1565,16 @@
         <v>12548.8790999997</v>
       </c>
       <c r="G19">
+        <v>14111.546749999794</v>
+      </c>
+      <c r="H19">
         <v>425.84625061112001</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>24903.9854999991</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -1521,13 +1594,16 @@
         <v>13734.401900000101</v>
       </c>
       <c r="G20">
+        <v>15540.710490000663</v>
+      </c>
+      <c r="H20">
         <v>440.56224426315401</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>27955.675599999198</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -1547,9 +1623,12 @@
         <v>15675.639500000199</v>
       </c>
       <c r="G21">
+        <v>17599.090610000963</v>
+      </c>
+      <c r="H21">
         <v>456.016386100006</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>31431.992099999599</v>
       </c>
     </row>
